--- a/netkeiba/keiba/template.xlsx
+++ b/netkeiba/keiba/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuto\Documents\GitHub\test_slot\netkeiba\keiba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100FF6FE-F863-4EF8-BCB7-833A5AF1092E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191E96C1-62EF-4C1C-BC83-8DD175F8F59E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:R2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/netkeiba/keiba/template.xlsx
+++ b/netkeiba/keiba/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuto\Documents\GitHub\test_slot\netkeiba\keiba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191E96C1-62EF-4C1C-BC83-8DD175F8F59E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D52111-8E9F-4DED-882F-6942E01F4D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1196,6 +1196,10 @@
       <c r="F1">
         <v>3</v>
       </c>
+      <c r="G1">
+        <f>F1-1</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2">
@@ -1212,6 +1216,10 @@
       <c r="F2">
         <v>8</v>
       </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G54" si="0">F2-1</f>
+        <v>7</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1245,12 +1253,16 @@
         <v>3</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E54" si="0">VLOOKUP(F3,A3:B174,2)</f>
+        <f t="shared" ref="E3:E54" si="1">VLOOKUP(F3,A3:B174,2)</f>
         <v>馬番</v>
       </c>
       <c r="F3">
         <v>9</v>
       </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="H3" t="s">
         <v>3</v>
       </c>
@@ -1297,12 +1309,16 @@
         <v>4</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>中週</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
@@ -1349,12 +1365,16 @@
         <v>5</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>体重</v>
       </c>
       <c r="F5">
         <v>11</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
@@ -1401,12 +1421,16 @@
         <v>6</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>体重増減</v>
       </c>
       <c r="F6">
         <v>12</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
@@ -1453,12 +1477,16 @@
         <v>7</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>斤量</v>
       </c>
       <c r="F7">
         <v>17</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="H7" t="s">
         <v>11</v>
       </c>
@@ -1505,12 +1533,16 @@
         <v>8</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>着順</v>
       </c>
       <c r="F8">
         <v>28</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="H8" t="s">
         <v>12</v>
       </c>
@@ -1557,12 +1589,16 @@
         <v>9</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>タイム</v>
       </c>
       <c r="F9">
         <v>32</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="H9" t="s">
         <v>17</v>
       </c>
@@ -1609,12 +1645,16 @@
         <v>10</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>頭数</v>
       </c>
       <c r="F10">
         <v>37</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="J10" t="s">
         <v>40</v>
       </c>
@@ -1649,12 +1689,16 @@
         <v>11</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>馬番</v>
       </c>
       <c r="F11">
         <v>38</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="J11" t="s">
         <v>42</v>
       </c>
@@ -1683,12 +1727,16 @@
         <v>12</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>斤量</v>
       </c>
       <c r="F12">
         <v>40</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="J12" t="s">
         <v>11</v>
       </c>
@@ -1717,12 +1765,16 @@
         <v>13</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>通過順1</v>
       </c>
       <c r="F13">
         <v>41</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="J13" t="s">
         <v>12</v>
       </c>
@@ -1739,12 +1791,16 @@
         <v>14</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>通過順2</v>
       </c>
       <c r="F14">
         <v>42</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
       <c r="J14" t="s">
         <v>43</v>
       </c>
@@ -1761,12 +1817,16 @@
         <v>15</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>通過順3</v>
       </c>
       <c r="F15">
         <v>43</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16">
@@ -1777,14 +1837,18 @@
         <v>16</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3ハロン</v>
       </c>
       <c r="F16">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <f>ROW()</f>
         <v>17</v>
@@ -1793,14 +1857,18 @@
         <v>17</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>体重</v>
       </c>
       <c r="F17">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <f>ROW()</f>
         <v>18</v>
@@ -1809,14 +1877,18 @@
         <v>18</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>体重増減</v>
       </c>
       <c r="F18">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <f>ROW()</f>
         <v>19</v>
@@ -1825,14 +1897,18 @@
         <v>19</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>着差</v>
       </c>
       <c r="F19">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <f>ROW()</f>
         <v>20</v>
@@ -1841,14 +1917,18 @@
         <v>20</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>着順</v>
       </c>
       <c r="F20">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <f>ROW()</f>
         <v>21</v>
@@ -1857,14 +1937,18 @@
         <v>21</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>タイム</v>
       </c>
       <c r="F21">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <f>ROW()</f>
         <v>22</v>
@@ -1873,14 +1957,18 @@
         <v>22</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>頭数</v>
       </c>
       <c r="F22">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <f>ROW()</f>
         <v>23</v>
@@ -1889,14 +1977,18 @@
         <v>23</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>馬番</v>
       </c>
       <c r="F23">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <f>ROW()</f>
         <v>24</v>
@@ -1905,14 +1997,18 @@
         <v>24</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>通過順1</v>
       </c>
       <c r="F24">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <f>ROW()</f>
         <v>25</v>
@@ -1921,14 +2017,18 @@
         <v>25</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>通過順2</v>
       </c>
       <c r="F25">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <f>ROW()</f>
         <v>26</v>
@@ -1937,14 +2037,18 @@
         <v>26</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3ハロン</v>
       </c>
       <c r="F26">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <f>ROW()</f>
         <v>27</v>
@@ -1953,14 +2057,18 @@
         <v>27</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>体重</v>
       </c>
       <c r="F27">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <f>ROW()</f>
         <v>28</v>
@@ -1969,14 +2077,18 @@
         <v>0</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>体重増減</v>
       </c>
       <c r="F28">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <f>ROW()</f>
         <v>29</v>
@@ -1985,14 +2097,18 @@
         <v>28</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>着差</v>
       </c>
       <c r="F29">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <f>ROW()</f>
         <v>30</v>
@@ -2001,14 +2117,18 @@
         <v>29</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>着順</v>
       </c>
       <c r="F30">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <f>ROW()</f>
         <v>31</v>
@@ -2017,14 +2137,18 @@
         <v>30</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>タイム</v>
       </c>
       <c r="F31">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <f>ROW()</f>
         <v>32</v>
@@ -2033,14 +2157,18 @@
         <v>31</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>頭数</v>
       </c>
       <c r="F32">
         <v>99</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <f>ROW()</f>
         <v>33</v>
@@ -2049,14 +2177,18 @@
         <v>32</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>馬番</v>
       </c>
       <c r="F33">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <f>ROW()</f>
         <v>34</v>
@@ -2065,14 +2197,18 @@
         <v>33</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>通過順1</v>
       </c>
       <c r="F34">
         <v>103</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <f>ROW()</f>
         <v>35</v>
@@ -2081,14 +2217,18 @@
         <v>34</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>通過順2</v>
       </c>
       <c r="F35">
         <v>104</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <f>ROW()</f>
         <v>36</v>
@@ -2097,14 +2237,18 @@
         <v>35</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3ハロン</v>
       </c>
       <c r="F36">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <f>ROW()</f>
         <v>37</v>
@@ -2113,14 +2257,18 @@
         <v>36</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>体重</v>
       </c>
       <c r="F37">
         <v>108</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <f>ROW()</f>
         <v>38</v>
@@ -2129,14 +2277,18 @@
         <v>9</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>体重増減</v>
       </c>
       <c r="F38">
         <v>109</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <f>ROW()</f>
         <v>39</v>
@@ -2145,14 +2297,18 @@
         <v>37</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>着差</v>
       </c>
       <c r="F39">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <f>ROW()</f>
         <v>40</v>
@@ -2161,14 +2317,18 @@
         <v>17</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>着順</v>
       </c>
       <c r="F40">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <f>ROW()</f>
         <v>41</v>
@@ -2177,14 +2337,18 @@
         <v>38</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>タイム</v>
       </c>
       <c r="F41">
         <v>125</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <f>ROW()</f>
         <v>42</v>
@@ -2193,14 +2357,18 @@
         <v>39</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>馬番</v>
       </c>
       <c r="F42">
         <v>131</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <f>ROW()</f>
         <v>43</v>
@@ -2209,14 +2377,18 @@
         <v>40</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>通過順1</v>
       </c>
       <c r="F43">
         <v>134</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <f>ROW()</f>
         <v>44</v>
@@ -2225,14 +2397,18 @@
         <v>41</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3ハロン</v>
       </c>
       <c r="F44">
         <v>138</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <f>ROW()</f>
         <v>45</v>
@@ -2241,14 +2417,18 @@
         <v>42</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>体重</v>
       </c>
       <c r="F45">
         <v>139</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <f>ROW()</f>
         <v>46</v>
@@ -2257,14 +2437,18 @@
         <v>11</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>体重増減</v>
       </c>
       <c r="F46">
         <v>140</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <f>ROW()</f>
         <v>47</v>
@@ -2273,14 +2457,18 @@
         <v>12</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>着差</v>
       </c>
       <c r="F47">
         <v>141</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <f>ROW()</f>
         <v>48</v>
@@ -2289,14 +2477,18 @@
         <v>43</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>着順</v>
       </c>
       <c r="F48">
         <v>152</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <f>ROW()</f>
         <v>49</v>
@@ -2305,14 +2497,18 @@
         <v>18</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>タイム</v>
       </c>
       <c r="F49">
         <v>156</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <f>ROW()</f>
         <v>50</v>
@@ -2321,14 +2517,18 @@
         <v>19</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>馬番</v>
       </c>
       <c r="F50">
         <v>162</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <f>ROW()</f>
         <v>51</v>
@@ -2337,14 +2537,18 @@
         <v>20</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3ハロン</v>
       </c>
       <c r="F51">
         <v>169</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <f>ROW()</f>
         <v>52</v>
@@ -2353,14 +2557,18 @@
         <v>21</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>体重</v>
       </c>
       <c r="F52">
         <v>170</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
         <f>ROW()</f>
         <v>53</v>
@@ -2369,14 +2577,18 @@
         <v>22</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>体重増減</v>
       </c>
       <c r="F53">
         <v>171</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <f>ROW()</f>
         <v>54</v>
@@ -2385,14 +2597,18 @@
         <v>23</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>着差</v>
       </c>
       <c r="F54">
         <v>172</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <f>ROW()</f>
         <v>55</v>
@@ -2401,7 +2617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <f>ROW()</f>
         <v>56</v>
@@ -2410,7 +2626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
         <f>ROW()</f>
         <v>57</v>
@@ -2419,7 +2635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
         <f>ROW()</f>
         <v>58</v>
@@ -2428,7 +2644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <f>ROW()</f>
         <v>59</v>
@@ -2437,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <f>ROW()</f>
         <v>60</v>
@@ -2446,7 +2662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
         <f>ROW()</f>
         <v>61</v>
@@ -2455,7 +2671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
         <f>ROW()</f>
         <v>62</v>
@@ -2464,7 +2680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
         <f>ROW()</f>
         <v>63</v>
@@ -2473,7 +2689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
         <f>ROW()</f>
         <v>64</v>
